--- a/Report_backlog_and_teamsheet_4_28_2021.xlsx
+++ b/Report_backlog_and_teamsheet_4_28_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klwj2\Desktop\study\Stevens\555\project 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AE33DB-6E68-41C4-92FD-A4C1EDBB7C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90F9DF-D662-42E1-A502-CEB81E7CBE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="2760" windowWidth="28305" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="273">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -536,7 +536,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -972,20 +972,78 @@
   <si>
     <t>hahahakkkE7</t>
   </si>
+  <si>
+    <t>US38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List living single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>calculate the date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare the date and birth in GED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T38.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add the satisfactory into a list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate the birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find the 30 years old people who have no marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -997,7 +1055,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1011,14 +1069,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1026,14 +1084,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0066CC"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1047,7 +1105,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1067,7 +1125,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1076,7 +1134,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1084,7 +1142,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1092,14 +1150,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1108,11 +1166,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1139,7 +1199,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -1155,18 +1215,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1182,6 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1209,11 +1270,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{A5CCCB12-4E21-441C-AF6F-D3A7BEE7C5D4}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{5DC2A9AA-D403-45BD-9AB9-75B92DFC8BB2}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,7 +1292,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1702,13 +1763,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1742,7 +1803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1793,7 +1854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -1810,7 +1871,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1833,20 +1894,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E40" sqref="A39:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1863,7 +1924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1880,7 +1941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1897,7 +1958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1914,7 +1975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1931,7 +1992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1948,7 +2009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1965,7 +2026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1982,7 +2043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1999,7 +2060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2016,7 +2077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2033,10 +2094,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="16" customFormat="1">
+    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2053,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2070,7 +2131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2087,7 +2148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2104,7 +2165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2121,7 +2182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2138,7 +2199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2155,7 +2216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2172,7 +2233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>2</v>
       </c>
@@ -2189,7 +2250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -2206,7 +2267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
@@ -2223,7 +2284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>3</v>
       </c>
@@ -2240,7 +2301,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2257,7 +2318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2274,7 +2335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2291,7 +2352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>3</v>
       </c>
@@ -2308,7 +2369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2325,7 +2386,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2342,7 +2403,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2359,7 +2420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2376,7 +2437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2393,7 +2454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2410,7 +2471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2427,7 +2488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2441,6 +2502,40 @@
         <v>67</v>
       </c>
       <c r="E38" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>4</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>4</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2458,23 +2553,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEA54D-8B1B-4FEB-853D-AFC0FFCF51CD}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8"/>
-    <col min="2" max="2" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="8"/>
+    <col min="2" max="2" width="20.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="12.42578125" style="8"/>
+    <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="12.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>139</v>
       </c>
@@ -2497,7 +2592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>140</v>
       </c>
@@ -2511,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13">
         <v>44273</v>
       </c>
@@ -2534,7 +2629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>44277</v>
       </c>
@@ -2555,7 +2650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>141</v>
       </c>
@@ -2579,7 +2674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>178</v>
       </c>
@@ -2603,7 +2698,7 @@
         <v>0.47727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>234</v>
       </c>
@@ -2643,20 +2738,20 @@
       <selection activeCell="K2" sqref="K2:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.85546875" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2685,7 +2780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2713,20 +2808,20 @@
       <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="K3" s="38" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2736,13 +2831,13 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2752,13 +2847,13 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2768,16 +2863,16 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2802,20 +2897,20 @@
       <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="K9" s="33" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2828,13 +2923,13 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2845,7 +2940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2856,14 +2951,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="K13" s="34" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2891,14 +2986,14 @@
       <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="36">
         <f>SUM(H:H)</f>
         <v>230</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2912,7 +3007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2926,7 +3021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2955,7 +3050,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2969,7 +3064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -2983,7 +3078,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3003,7 +3098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3032,7 +3127,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +3148,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3062,7 +3157,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -3079,7 +3174,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -3096,7 +3191,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
@@ -3111,7 +3206,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3120,7 +3215,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -3141,7 +3236,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3150,7 +3245,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -3165,7 +3260,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -3180,7 +3275,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -3219,18 +3314,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481DEDB-4C58-7441-A282-5807B9B53AF9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -3259,7 +3354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3287,23 +3382,23 @@
       <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="K3" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K3" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3313,16 +3408,16 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3332,16 +3427,16 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -3352,7 +3447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3363,17 +3458,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="K8" s="40" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -3401,26 +3496,26 @@
       <c r="I9" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="K10" s="39" t="s">
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K10" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -3431,7 +3526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3442,7 +3537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -3452,27 +3547,27 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="K14" s="39">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="40">
         <f>H2+H9+H15+H20+F24+F25+F25</f>
         <v>325</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>98</v>
       </c>
@@ -3499,7 +3594,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3510,7 +3605,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -3527,7 +3622,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -3538,7 +3633,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -3549,7 +3644,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>100</v>
       </c>
@@ -3576,7 +3671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3587,7 +3682,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>105</v>
       </c>
@@ -3604,7 +3699,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3615,7 +3710,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>144</v>
       </c>
@@ -3640,7 +3735,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>146</v>
       </c>
@@ -3690,13 +3785,13 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -3730,17 +3825,17 @@
       <c r="L1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -3776,28 +3871,28 @@
         <f>H2+H9+H14+H19+H25+H31</f>
         <v>220</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="N3" s="36" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -3807,17 +3902,17 @@
       <c r="C4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -3827,15 +3922,15 @@
       <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -3845,37 +3940,37 @@
       <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
       <c r="S6" s="32"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="N7" s="34" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="N8" s="33" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -3903,17 +3998,17 @@
       <c r="I9" s="21">
         <v>44299</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
@@ -3922,7 +4017,7 @@
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -3940,7 +4035,7 @@
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -3951,7 +4046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>190</v>
       </c>
@@ -3980,7 +4075,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -3991,7 +4086,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>195</v>
       </c>
@@ -4008,7 +4103,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>196</v>
       </c>
@@ -4025,7 +4120,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>192</v>
       </c>
@@ -4054,7 +4149,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -4065,7 +4160,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>198</v>
       </c>
@@ -4082,7 +4177,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>199</v>
       </c>
@@ -4099,7 +4194,7 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>201</v>
       </c>
@@ -4128,7 +4223,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>211</v>
       </c>
@@ -4139,7 +4234,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>212</v>
       </c>
@@ -4150,7 +4245,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>213</v>
       </c>
@@ -4161,7 +4256,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>204</v>
       </c>
@@ -4190,7 +4285,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -4201,7 +4296,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>218</v>
       </c>
@@ -4212,7 +4307,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>222</v>
       </c>
@@ -4223,7 +4318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>223</v>
       </c>
@@ -4253,18 +4348,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74151F94-36D8-9A4C-9478-BD11CB13B9EF}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -4299,7 +4394,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -4336,7 +4431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>235</v>
       </c>
@@ -4347,7 +4442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -4358,14 +4453,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="K7" s="36" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -4393,39 +4488,39 @@
       <c r="I8" s="26">
         <v>44312</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="K9" s="36" t="s">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>240</v>
       </c>
       <c r="B10" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>241</v>
       </c>
@@ -4435,11 +4530,11 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -4449,18 +4544,18 @@
       <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="K13" s="34" t="s">
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -4488,28 +4583,28 @@
       <c r="I14" s="26">
         <v>44314</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="K15" s="33" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>246</v>
       </c>
@@ -4523,12 +4618,12 @@
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>248</v>
       </c>
@@ -4557,7 +4652,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>251</v>
       </c>
@@ -4565,17 +4660,212 @@
         <v>250</v>
       </c>
     </row>
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="31">
+        <v>130</v>
+      </c>
+      <c r="F22" s="31">
+        <v>90</v>
+      </c>
+      <c r="G22" s="31">
+        <v>100</v>
+      </c>
+      <c r="H22" s="31">
+        <v>70</v>
+      </c>
+      <c r="I22" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="33">
+        <v>130</v>
+      </c>
+      <c r="F28" s="33">
+        <v>90</v>
+      </c>
+      <c r="G28" s="33">
+        <v>100</v>
+      </c>
+      <c r="H28" s="33">
+        <v>80</v>
+      </c>
+      <c r="I28" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K10:O10"/>
     <mergeCell ref="K14:Q14"/>
     <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report_backlog_and_teamsheet_4_28_2021.xlsx
+++ b/Report_backlog_and_teamsheet_4_28_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90F9DF-D662-42E1-A502-CEB81E7CBE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954C8B0-6CB6-46FC-A1E1-460711AF387B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="285">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -536,7 +527,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -607,337 +598,322 @@
     <t>Male last names</t>
   </si>
   <si>
+    <t>US05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>hyl</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>hyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>YKW</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first name in families</t>
+  </si>
+  <si>
+    <t>Mar31，2021</t>
+  </si>
+  <si>
+    <t>Mar31,2021</t>
+  </si>
+  <si>
+    <t>Unique  ids</t>
+  </si>
+  <si>
+    <t>unique birthday</t>
+  </si>
+  <si>
+    <t>T42.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T42.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T42.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18,01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find all the kids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find which are siblings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T38.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T38.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent births</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all people</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all people in a GEDCOM file who were born in the last 30 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age difference</t>
+  </si>
+  <si>
     <t>US04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Marriage before divorce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>hyl</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>hyl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>YKW</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first name in families</t>
-  </si>
-  <si>
-    <t>Mar31，2021</t>
-  </si>
-  <si>
-    <t>Mar31,2021</t>
-  </si>
-  <si>
-    <t>Unique  ids</t>
-  </si>
-  <si>
-    <t>unique birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all people in a GEDCOM file who are spouses with large age difference</t>
+  </si>
+  <si>
+    <t>T34.01</t>
+  </si>
+  <si>
+    <t>T34.02</t>
+  </si>
+  <si>
+    <t>marriage before divorce</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all people in a GEDCOM file with marriage before divorce</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>hyz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>US12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12,01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find a family with husband, wife and child</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare their birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the birth date of them</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13,01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13,02</t>
+  </si>
+  <si>
+    <t>Find all children in every family</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the children birth date and put in a list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort the list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13,03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13,04</t>
+  </si>
+  <si>
+    <t>Compare every two brith date in the sorted list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>Listdeath</t>
+  </si>
+  <si>
+    <t>list survivors</t>
+  </si>
+  <si>
+    <t>US33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List orphans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T33.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T33.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List the cildren who lost their parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all people and family</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find all the birthday, deathday, marriageday, divorceday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T41.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T41.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T41.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether the comparison date is a canonical date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
   </si>
   <si>
     <t>T42.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T42.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T42.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18,01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find all the kids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>find which are siblings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T38.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T38.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List recent births</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List all people</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> List all people in a GEDCOM file who were born in the last 30 days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age difference</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List all people in a GEDCOM file who are spouses with large age difference</t>
-  </si>
-  <si>
-    <t>T34.01</t>
-  </si>
-  <si>
-    <t>T34.02</t>
-  </si>
-  <si>
-    <t>marriage before divorce</t>
-  </si>
-  <si>
-    <t>T04.01</t>
-  </si>
-  <si>
-    <t>T04.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List all people in a GEDCOM file with marriage before divorce</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>hyz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>US12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hyz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12,01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find a family with husband, wife and child</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare their birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find the birth date of them</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T13,01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T13,02</t>
-  </si>
-  <si>
-    <t>Find all children in every family</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find the children birth date and put in a list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort the list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T13,03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T13,04</t>
-  </si>
-  <si>
-    <t>Compare every two brith date in the sorted list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>Listdeath</t>
-  </si>
-  <si>
-    <t>list survivors</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>US33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List orphans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T33.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T33.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List the cildren who lost their parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List all people and family</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>find all the birthday, deathday, marriageday, divorceday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T41.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T41.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T41.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whether the comparison date is a canonical date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>T42.01</t>
   </si>
   <si>
     <t>Get error list</t>
@@ -1029,6 +1005,54 @@
   <si>
     <t>T31.03</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
   </si>
 </sst>
 </file>
@@ -1036,14 +1060,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1055,7 +1079,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1069,14 +1093,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1084,14 +1108,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0066CC"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1105,7 +1129,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1125,7 +1149,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1134,7 +1158,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1142,7 +1166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1150,14 +1174,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1199,7 +1223,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -1215,18 +1239,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1242,6 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1270,11 +1295,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{A5CCCB12-4E21-441C-AF6F-D3A7BEE7C5D4}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{5DC2A9AA-D403-45BD-9AB9-75B92DFC8BB2}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,7 +1317,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1314,10 +1339,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$13</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44259</c:v>
                 </c:pt>
@@ -1327,13 +1352,13 @@
                 <c:pt idx="2">
                   <c:v>44277</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>44286</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="4">
                   <c:v>44299</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="5">
                   <c:v>44312</c:v>
                 </c:pt>
               </c:numCache>
@@ -1341,10 +1366,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$C$2:$C$13</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42</c:v>
                 </c:pt>
@@ -1352,16 +1377,16 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,13 +1482,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>684497</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>63174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134164</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1759,17 +1784,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1803,7 +1828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1854,24 +1879,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1894,20 +1919,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E40" sqref="A39:E40"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1924,7 +1949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1941,7 +1966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1954,11 +1979,11 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1971,11 +1996,11 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1988,11 +2013,11 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2005,11 +2030,11 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2022,11 +2047,11 @@
       <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2039,28 +2064,28 @@
       <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2071,477 +2096,562 @@
         <v>153</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+        <v>161</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="34" customFormat="1">
       <c r="B12" s="24"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:5" s="16" customFormat="1">
+      <c r="A13" s="16">
         <v>2</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
         <v>158</v>
       </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+        <v>67</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="34" customFormat="1">
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>2</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="E23" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="34" customFormat="1">
+      <c r="A24" s="34">
+        <v>3</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="34">
+        <v>3</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34">
+        <v>3</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="E26" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B27" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="E27" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="20">
+        <v>3</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="D28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="34">
         <v>3</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B29" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="34">
         <v>3</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B30" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
-        <v>3</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>205</v>
+        <v>222</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <v>164</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="22">
         <v>3</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="34" customFormat="1">
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E35" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="34" customFormat="1">
+      <c r="A36" s="34">
         <v>4</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>248</v>
+      <c r="B37" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D37" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E37" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="B38" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="34">
         <v>4</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="34">
         <v>4</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="34">
+        <v>4</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="34">
+        <v>4</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="34">
+        <v>4</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="34">
+        <v>4</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="34">
+        <v>4</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="34">
+        <v>4</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:E29">
-    <sortCondition ref="B24:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,25 +2661,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEA54D-8B1B-4FEB-853D-AFC0FFCF51CD}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="8"/>
-    <col min="2" max="2" width="20.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="8"/>
+    <col min="2" max="2" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="12.44140625" style="8"/>
+    <col min="4" max="4" width="14.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="12.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>139</v>
       </c>
@@ -2592,7 +2702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>140</v>
       </c>
@@ -2606,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3" s="13">
         <v>44273</v>
       </c>
@@ -2629,15 +2739,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" s="18">
         <v>44277</v>
       </c>
       <c r="C4" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="8">
-        <v>2</v>
+        <f t="shared" ref="D4:D7" si="0">C3-C4</f>
+        <v>6</v>
       </c>
       <c r="E4" s="8">
         <v>390</v>
@@ -2650,76 +2761,85 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44286</v>
+      </c>
+      <c r="C5" s="8">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <f>SUM(Sprint2!G2:G25)</f>
+        <v>310</v>
+      </c>
+      <c r="F5" s="8">
+        <f>SUM(Sprint2!H2:H25)</f>
+        <v>270</v>
+      </c>
+      <c r="G5" s="9">
+        <f>(E5-E4)/F5*60</f>
+        <v>-17.777777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="13">
+        <v>44299</v>
+      </c>
+      <c r="C6" s="8">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="8">
+        <f>SUM(Sprint3!G2:G36)</f>
+        <v>105</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUM(Sprint3!H2:H36)</f>
+        <v>220</v>
+      </c>
+      <c r="G6" s="9">
+        <f>E6/F6</f>
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="B7" s="13">
-        <v>44286</v>
+        <v>44312</v>
       </c>
       <c r="C7" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E7" s="8">
-        <v>475</v>
+        <f>SUM(Sprint4!G2:G45)</f>
+        <v>1069</v>
       </c>
       <c r="F7" s="8">
-        <v>100</v>
+        <f>SUM(Sprint4!H2:H45)</f>
+        <v>1100</v>
       </c>
       <c r="G7" s="9">
-        <f>(E7-E4)/F7*60</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="13">
-        <v>44299</v>
-      </c>
-      <c r="C10" s="8">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
-        <v>105</v>
-      </c>
-      <c r="F10" s="8">
-        <v>220</v>
-      </c>
-      <c r="G10" s="9">
-        <f>E10/F10</f>
-        <v>0.47727272727272729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="13">
-        <v>44312</v>
-      </c>
-      <c r="C13" s="8">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>89</v>
-      </c>
-      <c r="F13" s="8">
-        <v>66</v>
-      </c>
-      <c r="G13" s="9">
-        <f>E13/F13</f>
-        <v>1.3484848484848484</v>
+        <f>E7/F7</f>
+        <v>0.9718181818181818</v>
       </c>
     </row>
   </sheetData>
@@ -2734,24 +2854,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.88671875" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2780,7 +2900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2808,20 +2928,20 @@
       <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="39" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="K3" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2831,13 +2951,13 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2847,13 +2967,13 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2863,16 +2983,16 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2897,20 +3017,20 @@
       <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="34" t="s">
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="K9" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2923,13 +3043,13 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2940,7 +3060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2951,14 +3071,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K13" s="35" t="s">
+    <row r="13" spans="1:13">
+      <c r="K13" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2986,14 +3106,14 @@
       <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="37">
         <f>SUM(H:H)</f>
-        <v>230</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3007,7 +3127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3021,7 +3141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3050,7 +3170,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -3064,7 +3184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3078,7 +3198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3098,7 +3218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3127,7 +3247,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -3146,9 +3266,14 @@
       <c r="F28" s="6">
         <v>60</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="6">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3157,7 +3282,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -3174,7 +3299,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -3191,7 +3316,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
@@ -3206,7 +3331,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3215,7 +3340,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -3234,9 +3359,14 @@
       <c r="F34" s="6">
         <v>80</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="6">
+        <v>60</v>
+      </c>
+      <c r="H34" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3245,7 +3375,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -3260,7 +3390,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -3275,7 +3405,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -3314,18 +3444,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481DEDB-4C58-7441-A282-5807B9B53AF9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="57.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -3354,7 +3484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3382,23 +3512,23 @@
       <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K3" s="39" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="K3" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3408,16 +3538,16 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3427,16 +3557,16 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -3447,7 +3577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3458,17 +3588,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K8" s="41" t="s">
+    <row r="8" spans="1:16">
+      <c r="K8" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -3496,28 +3626,28 @@
       <c r="I9" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K10" s="40" t="s">
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="K10" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -3526,9 +3656,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -3537,9 +3667,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -3547,27 +3677,27 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K14" s="40">
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="K14" s="41">
         <f>H2+H9+H15+H20+F24+F25+F25</f>
         <v>325</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
         <v>98</v>
       </c>
@@ -3586,15 +3716,17 @@
       <c r="F15" s="16">
         <v>70</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16">
+        <v>50</v>
+      </c>
       <c r="H15" s="16">
         <v>45</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3605,7 +3737,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -3622,7 +3754,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -3633,7 +3765,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -3644,7 +3776,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="16" t="s">
         <v>100</v>
       </c>
@@ -3663,15 +3795,17 @@
       <c r="F20" s="16">
         <v>80</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16">
+        <v>60</v>
+      </c>
       <c r="H20" s="16">
         <v>55</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3682,7 +3816,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>105</v>
       </c>
@@ -3699,7 +3833,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3710,15 +3844,15 @@
       <c r="H23" s="16"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>68</v>
@@ -3729,21 +3863,23 @@
       <c r="F24" s="16">
         <v>35</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="16">
+        <v>50</v>
+      </c>
       <c r="H24" s="16"/>
       <c r="I24" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>68</v>
@@ -3754,10 +3890,14 @@
       <c r="F25" s="16">
         <v>35</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="16">
+        <v>50</v>
+      </c>
+      <c r="H25" s="16">
+        <v>50</v>
+      </c>
       <c r="I25" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3781,17 +3921,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEB31C5-8FAF-D54E-8C1E-527269570479}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="53.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -3820,27 +3960,27 @@
         <v>27</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="N1" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3871,111 +4011,111 @@
         <f>H2+H9+H14+H19+H25+H31</f>
         <v>220</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N3" s="37" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="N3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
       <c r="S6" s="32"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N7" s="35" t="s">
+    <row r="7" spans="1:20">
+      <c r="N7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N8" s="34" t="s">
+    <row r="8" spans="1:20">
+      <c r="N8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -3998,17 +4138,17 @@
       <c r="I9" s="21">
         <v>44299</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
@@ -4017,12 +4157,12 @@
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>44</v>
@@ -4035,23 +4175,23 @@
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>67</v>
@@ -4075,7 +4215,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -4086,12 +4226,12 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>67</v>
@@ -4103,12 +4243,12 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>67</v>
@@ -4120,12 +4260,12 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>67</v>
@@ -4149,7 +4289,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -4160,12 +4300,12 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>67</v>
@@ -4177,12 +4317,12 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>67</v>
@@ -4194,18 +4334,18 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E25">
         <v>25</v>
@@ -4223,51 +4363,51 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
         <v>211</v>
       </c>
-      <c r="B27" t="s">
-        <v>214</v>
-      </c>
       <c r="C27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" t="s">
         <v>212</v>
       </c>
-      <c r="B28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
-      </c>
       <c r="C29" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -4285,48 +4425,48 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" t="s">
         <v>217</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C34" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="B35" t="s">
         <v>218</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" t="s">
-        <v>224</v>
-      </c>
       <c r="C36" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4348,18 +4488,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74151F94-36D8-9A4C-9478-BD11CB13B9EF}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -4388,18 +4528,18 @@
         <v>27</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4431,41 +4571,41 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="37" t="s">
+    <row r="7" spans="1:17">
+      <c r="K7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -4488,79 +4628,79 @@
       <c r="I8" s="26">
         <v>44312</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K9" s="37" t="s">
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="K9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K13" s="35" t="s">
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="K13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4583,33 +4723,33 @@
       <c r="I14" s="26">
         <v>44314</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K15" s="34" t="s">
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="K15" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>67</v>
@@ -4618,17 +4758,17 @@
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="29" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>67</v>
@@ -4652,20 +4792,20 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>34</v>
@@ -4689,7 +4829,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -4700,12 +4840,12 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>34</v>
@@ -4719,12 +4859,12 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>34</v>
@@ -4736,12 +4876,12 @@
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>34</v>
@@ -4753,7 +4893,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -4764,12 +4904,12 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>34</v>
@@ -4793,7 +4933,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -4804,12 +4944,12 @@
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>34</v>
@@ -4821,12 +4961,12 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>34</v>
@@ -4838,12 +4978,12 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>34</v>
@@ -4855,8 +4995,345 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="34">
+        <v>100</v>
+      </c>
+      <c r="F34" s="34">
+        <v>90</v>
+      </c>
+      <c r="G34" s="34">
+        <v>60</v>
+      </c>
+      <c r="H34" s="34">
+        <v>70</v>
+      </c>
+      <c r="I34" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="34">
+        <v>100</v>
+      </c>
+      <c r="F35" s="34">
+        <v>90</v>
+      </c>
+      <c r="G35" s="34">
+        <v>70</v>
+      </c>
+      <c r="H35" s="34">
+        <v>80</v>
+      </c>
+      <c r="I35" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="34">
+        <v>100</v>
+      </c>
+      <c r="F36" s="34">
+        <v>90</v>
+      </c>
+      <c r="G36" s="34">
+        <v>65</v>
+      </c>
+      <c r="H36" s="34">
+        <v>65</v>
+      </c>
+      <c r="I36" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="34">
+        <v>100</v>
+      </c>
+      <c r="F37" s="34">
+        <v>90</v>
+      </c>
+      <c r="G37" s="34">
+        <v>70</v>
+      </c>
+      <c r="H37" s="34">
+        <v>65</v>
+      </c>
+      <c r="I37" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="34">
+        <v>100</v>
+      </c>
+      <c r="F38" s="34">
+        <v>90</v>
+      </c>
+      <c r="G38" s="34">
+        <v>100</v>
+      </c>
+      <c r="H38" s="34">
+        <v>80</v>
+      </c>
+      <c r="I38" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="34">
+        <v>100</v>
+      </c>
+      <c r="F39" s="34">
+        <v>90</v>
+      </c>
+      <c r="G39" s="34">
+        <v>60</v>
+      </c>
+      <c r="H39" s="34">
+        <v>77</v>
+      </c>
+      <c r="I39" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="34">
+        <v>100</v>
+      </c>
+      <c r="F40" s="34">
+        <v>90</v>
+      </c>
+      <c r="G40" s="34">
+        <v>65</v>
+      </c>
+      <c r="H40" s="34">
+        <v>77</v>
+      </c>
+      <c r="I40" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="34">
+        <v>100</v>
+      </c>
+      <c r="F41" s="34">
+        <v>90</v>
+      </c>
+      <c r="G41" s="34">
+        <v>70</v>
+      </c>
+      <c r="H41" s="34">
+        <v>80</v>
+      </c>
+      <c r="I41" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="34">
+        <v>100</v>
+      </c>
+      <c r="F42" s="34">
+        <v>90</v>
+      </c>
+      <c r="G42" s="34">
+        <v>80</v>
+      </c>
+      <c r="H42" s="34">
+        <v>60</v>
+      </c>
+      <c r="I42" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="34">
+        <v>100</v>
+      </c>
+      <c r="F43" s="34">
+        <v>90</v>
+      </c>
+      <c r="G43" s="34">
+        <v>50</v>
+      </c>
+      <c r="H43" s="34">
+        <v>90</v>
+      </c>
+      <c r="I43" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="34">
+        <v>100</v>
+      </c>
+      <c r="F44" s="34">
+        <v>90</v>
+      </c>
+      <c r="G44" s="34">
+        <v>50</v>
+      </c>
+      <c r="H44" s="34">
+        <v>50</v>
+      </c>
+      <c r="I44" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="34">
+        <v>100</v>
+      </c>
+      <c r="F45" s="34">
+        <v>90</v>
+      </c>
+      <c r="G45" s="34">
+        <v>40</v>
+      </c>
+      <c r="H45" s="34">
+        <v>90</v>
+      </c>
+      <c r="I45" s="26">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K11:M11"/>
@@ -4864,8 +5341,6 @@
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report_backlog_and_teamsheet_4_28_2021.xlsx
+++ b/Report_backlog_and_teamsheet_4_28_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954C8B0-6CB6-46FC-A1E1-460711AF387B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184AFD1-80C7-4B5F-829C-0EACEEF77ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="286">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>hl</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1267,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1784,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1922,7 +1925,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C46"/>
+      <selection activeCell="D39" sqref="D39:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1979,7 +1982,7 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1996,7 +1999,7 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2013,7 +2016,7 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2030,7 +2033,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2047,7 +2050,7 @@
       <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2064,7 +2067,7 @@
       <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2081,7 +2084,7 @@
       <c r="D9" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2098,7 +2101,7 @@
       <c r="D10" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2115,11 +2118,11 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="34" customFormat="1">
+      <c r="E11" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="33" customFormat="1">
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:5" s="16" customFormat="1">
@@ -2135,7 +2138,7 @@
       <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2152,7 +2155,7 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2169,7 +2172,7 @@
       <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2186,7 +2189,7 @@
       <c r="D16" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2203,7 +2206,7 @@
       <c r="D17" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2220,7 +2223,7 @@
       <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2237,7 +2240,7 @@
       <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2254,7 +2257,7 @@
       <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2271,11 +2274,11 @@
       <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="34" customFormat="1">
+      <c r="E21" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="33" customFormat="1">
       <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:5">
@@ -2291,58 +2294,58 @@
       <c r="D23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="34" customFormat="1">
-      <c r="A24" s="34">
+      <c r="E23" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="33" customFormat="1">
+      <c r="A24" s="33">
         <v>3</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>3</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>3</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2359,7 +2362,7 @@
       <c r="D27" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2376,41 +2379,41 @@
       <c r="D28" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>3</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>3</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2427,7 +2430,7 @@
       <c r="D31" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2444,11 +2447,11 @@
       <c r="D32" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="34" customFormat="1">
+      <c r="E32" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="33" customFormat="1">
       <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:5">
@@ -2464,7 +2467,7 @@
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2481,24 +2484,24 @@
       <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="34" customFormat="1">
-      <c r="A36" s="34">
+      <c r="E35" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="33" customFormat="1">
+      <c r="A36" s="33">
         <v>4</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2506,16 +2509,16 @@
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>245</v>
       </c>
       <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2532,12 +2535,12 @@
       <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="34">
+      <c r="A39" s="33">
         <v>4</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -2546,12 +2549,15 @@
       <c r="C39" t="s">
         <v>277</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="D39" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>4</v>
       </c>
       <c r="B40" s="24" t="s">
@@ -2560,12 +2566,15 @@
       <c r="C40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="D40" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="34">
+      <c r="A41" s="33">
         <v>4</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -2574,13 +2583,15 @@
       <c r="C41" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="34" t="s">
+      <c r="D41" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="34">
+      <c r="A42" s="33">
         <v>4</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -2589,12 +2600,15 @@
       <c r="C42" t="s">
         <v>280</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="D42" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="34">
+      <c r="A43" s="33">
         <v>4</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -2603,12 +2617,15 @@
       <c r="C43" t="s">
         <v>281</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="D43" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="34">
+      <c r="A44" s="33">
         <v>4</v>
       </c>
       <c r="B44" s="24" t="s">
@@ -2617,12 +2634,15 @@
       <c r="C44" t="s">
         <v>282</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="D44" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>4</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -2631,12 +2651,15 @@
       <c r="C45" t="s">
         <v>283</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="D45" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="34">
+      <c r="A46" s="33">
         <v>4</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -2645,7 +2668,10 @@
       <c r="C46" t="s">
         <v>284</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="D46" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3970,10 +3996,10 @@
       </c>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
@@ -4027,10 +4053,10 @@
       </c>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
@@ -4049,8 +4075,8 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
@@ -4065,10 +4091,10 @@
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
@@ -4083,10 +4109,10 @@
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20">
       <c r="N7" s="36" t="s">
@@ -4094,10 +4120,10 @@
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20">
       <c r="N8" s="35" t="s">
@@ -4149,13 +4175,13 @@
       <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
@@ -4167,13 +4193,13 @@
       <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
@@ -4490,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74151F94-36D8-9A4C-9478-BD11CB13B9EF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4699,7 +4725,7 @@
       <c r="A14" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>241</v>
       </c>
       <c r="C14" t="s">
@@ -4754,20 +4780,20 @@
       <c r="C16" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -4801,28 +4827,28 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="30">
         <v>130</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>90</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <v>100</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="30">
         <v>70</v>
       </c>
       <c r="I22" s="26">
@@ -4830,103 +4856,103 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="D24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="32">
         <v>130</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <v>90</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <v>100</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <v>80</v>
       </c>
       <c r="I28" s="26">
@@ -4934,90 +4960,90 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="34">
+      <c r="D34" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="33">
         <v>100</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="33">
         <v>90</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="33">
         <v>60</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="33">
         <v>70</v>
       </c>
       <c r="I34" s="26">
@@ -5028,25 +5054,25 @@
       <c r="A35" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="34">
+      <c r="D35" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="33">
         <v>100</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="33">
         <v>90</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="33">
         <v>70</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="33">
         <v>80</v>
       </c>
       <c r="I35" s="26">
@@ -5054,28 +5080,28 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="34">
+      <c r="D36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="33">
         <v>100</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="33">
         <v>90</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="33">
         <v>65</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="33">
         <v>65</v>
       </c>
       <c r="I36" s="26">
@@ -5086,25 +5112,25 @@
       <c r="A37" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="34">
+      <c r="D37" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="33">
         <v>100</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="33">
         <v>90</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="33">
         <v>70</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="33">
         <v>65</v>
       </c>
       <c r="I37" s="26">
@@ -5115,23 +5141,25 @@
       <c r="A38" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="34">
+      <c r="C38" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="33">
         <v>100</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="33">
         <v>90</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="33">
         <v>100</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="33">
         <v>80</v>
       </c>
       <c r="I38" s="26">
@@ -5142,23 +5170,25 @@
       <c r="A39" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="34">
+      <c r="C39" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="33">
         <v>100</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <v>90</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="33">
         <v>60</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="33">
         <v>77</v>
       </c>
       <c r="I39" s="26">
@@ -5169,23 +5199,25 @@
       <c r="A40" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="34">
+      <c r="C40" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="33">
         <v>100</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <v>90</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="33">
         <v>65</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="33">
         <v>77</v>
       </c>
       <c r="I40" s="26">
@@ -5196,23 +5228,25 @@
       <c r="A41" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="34">
+      <c r="C41" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="33">
         <v>100</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="33">
         <v>90</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="33">
         <v>70</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="33">
         <v>80</v>
       </c>
       <c r="I41" s="26">
@@ -5223,23 +5257,25 @@
       <c r="A42" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="34">
+      <c r="C42" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="33">
         <v>100</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="33">
         <v>90</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="33">
         <v>80</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="33">
         <v>60</v>
       </c>
       <c r="I42" s="26">
@@ -5250,23 +5286,25 @@
       <c r="A43" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="34">
+      <c r="C43" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="33">
         <v>100</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="33">
         <v>90</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="33">
         <v>50</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="33">
         <v>90</v>
       </c>
       <c r="I43" s="26">
@@ -5277,23 +5315,25 @@
       <c r="A44" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="34">
+      <c r="C44" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="33">
         <v>100</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="33">
         <v>90</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="33">
         <v>50</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="33">
         <v>50</v>
       </c>
       <c r="I44" s="26">
@@ -5304,23 +5344,25 @@
       <c r="A45" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="34">
+      <c r="C45" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="33">
         <v>100</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="33">
         <v>90</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="33">
         <v>40</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="33">
         <v>90</v>
       </c>
       <c r="I45" s="26">
@@ -5328,7 +5370,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="B46" s="34"/>
+      <c r="B46" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Report_backlog_and_teamsheet_4_28_2021.xlsx
+++ b/Report_backlog_and_teamsheet_4_28_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184AFD1-80C7-4B5F-829C-0EACEEF77ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F34064-61F5-4147-A7F1-7F3CDCB7B354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -1268,6 +1268,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1922,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2122,37 +2123,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="33" customFormat="1">
+    <row r="12" spans="1:5" s="35" customFormat="1">
       <c r="B12" s="24"/>
     </row>
-    <row r="13" spans="1:5" s="16" customFormat="1">
-      <c r="A13" s="16">
+    <row r="13" spans="1:5" s="33" customFormat="1">
+      <c r="A13" s="33">
         <v>2</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="14" spans="1:5" s="16" customFormat="1">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -2278,20 +2279,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="33" customFormat="1">
+    <row r="22" spans="1:5" s="35" customFormat="1">
       <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16">
+      <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="33" t="s">
@@ -2316,23 +2317,23 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="33">
+      <c r="A25" s="16">
         <v>3</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="16" t="s">
         <v>201</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" s="33" customFormat="1">
       <c r="A26" s="33">
         <v>3</v>
       </c>
@@ -2384,16 +2385,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33">
+      <c r="A29" s="35">
         <v>3</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -2401,16 +2402,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="33">
+      <c r="A30" s="35">
         <v>3</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="35" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="33" t="s">
@@ -2418,16 +2419,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="33">
         <v>3</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="33" t="s">
         <v>164</v>
       </c>
       <c r="E31" s="33" t="s">
@@ -2435,23 +2436,23 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>3</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="33" t="s">
         <v>164</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="33" customFormat="1">
+    <row r="33" spans="1:5" s="35" customFormat="1">
       <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:5">
@@ -2459,30 +2460,30 @@
         <v>4</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="22">
         <v>4</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
+        <v>269</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>37</v>
@@ -2493,13 +2494,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>37</v>
@@ -2509,14 +2510,14 @@
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>245</v>
+      <c r="B37" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>37</v>
@@ -2527,29 +2528,29 @@
         <v>4</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" t="s">
-        <v>229</v>
+        <v>272</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" s="33" customFormat="1">
       <c r="A39" s="33">
         <v>4</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>285</v>
       </c>
       <c r="E39" s="33" t="s">
@@ -2557,33 +2558,33 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="33">
+      <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>285</v>
+        <v>256</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="33">
+      <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D41" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
         <v>285</v>
       </c>
       <c r="E41" s="33" t="s">
@@ -2595,13 +2596,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>37</v>
@@ -2612,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" t="s">
-        <v>281</v>
+        <v>254</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>37</v>
@@ -2629,13 +2630,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" t="s">
-        <v>282</v>
+        <v>244</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>37</v>
@@ -2646,10 +2647,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C45" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>285</v>
@@ -2663,21 +2664,36 @@
         <v>4</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="33"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="33"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="33"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
+    <sortCondition ref="A2:A49"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2954,18 +2970,18 @@
       <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -2977,11 +2993,11 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
@@ -2993,11 +3009,11 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -3009,14 +3025,14 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -3043,18 +3059,18 @@
       <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -3069,11 +3085,11 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -3098,11 +3114,11 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -3132,12 +3148,12 @@
       <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="38">
         <f>SUM(H:H)</f>
         <v>340</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -3538,21 +3554,21 @@
       <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -3564,14 +3580,14 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -3583,14 +3599,14 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -3615,14 +3631,14 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -3652,24 +3668,24 @@
       <c r="I9" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -3703,25 +3719,25 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="K14" s="41">
+      <c r="K14" s="42">
         <f>H2+H9+H15+H20+F24+F25+F25</f>
         <v>325</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
@@ -3991,11 +4007,11 @@
       <c r="L1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
       <c r="S1" s="31"/>
@@ -4037,22 +4053,22 @@
         <f>H2+H9+H14+H19+H25+H31</f>
         <v>220</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
@@ -4068,13 +4084,13 @@
       <c r="C4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
     </row>
@@ -4088,9 +4104,9 @@
       <c r="C5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
       <c r="S5" s="31"/>
@@ -4106,35 +4122,35 @@
       <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
@@ -4164,15 +4180,15 @@
       <c r="I9" s="21">
         <v>44299</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20">
       <c r="N10" s="31"/>
@@ -4516,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74151F94-36D8-9A4C-9478-BD11CB13B9EF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -4620,11 +4636,11 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
@@ -4654,22 +4670,22 @@
       <c r="I8" s="26">
         <v>44312</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
@@ -4678,13 +4694,13 @@
       <c r="B10" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -4696,9 +4712,9 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
@@ -4710,16 +4726,16 @@
       <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
@@ -4749,26 +4765,26 @@
       <c r="I14" s="26">
         <v>44314</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="29" t="s">
